--- a/src/Data/Source/data.xlsx
+++ b/src/Data/Source/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
   <si>
     <t>Text</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>Услуга 15</t>
+  </si>
+  <si>
+    <t>/iso-list</t>
   </si>
 </sst>
 </file>
@@ -681,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E9" s="5">
         <v>2</v>
@@ -1481,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD20"/>
     </sheetView>
   </sheetViews>

--- a/src/Data/Source/data.xlsx
+++ b/src/Data/Source/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>0888 88 88 810</t>
   </si>
   <si>
-    <t>Инструкции</t>
-  </si>
-  <si>
     <t>Искане</t>
   </si>
   <si>
@@ -284,6 +281,9 @@
   </si>
   <si>
     <t>/iso-list</t>
+  </si>
+  <si>
+    <t>Инструкция</t>
   </si>
 </sst>
 </file>
@@ -684,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="5">
         <v>2</v>
@@ -1258,7 +1258,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>33</v>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2">
         <v>1010</v>
@@ -1283,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2">
         <v>1011</v>
@@ -1297,7 +1297,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2">
         <v>1012</v>
@@ -1311,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2">
         <v>1013</v>
@@ -1325,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2">
         <v>1014</v>
@@ -1339,7 +1339,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2">
         <v>1015</v>
@@ -1353,7 +1353,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2">
         <v>1016</v>
@@ -1367,7 +1367,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2">
         <v>1017</v>
@@ -1381,7 +1381,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2">
         <v>1018</v>
@@ -1395,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2">
         <v>1019</v>
@@ -1409,7 +1409,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2">
         <v>10110</v>
@@ -1423,7 +1423,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2">
         <v>10111</v>
@@ -1437,7 +1437,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2">
         <v>10112</v>
@@ -1451,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2">
         <v>10113</v>
@@ -1465,7 +1465,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="2">
         <v>10114</v>
@@ -1484,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,10 +1521,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1532,10 +1532,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1543,10 +1543,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1554,10 +1554,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/src/Data/Source/data.xlsx
+++ b/src/Data/Source/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
   <si>
     <t>Text</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>Инструкция</t>
+  </si>
+  <si>
+    <t>ЗАПОВЕДИ</t>
+  </si>
+  <si>
+    <t>/order</t>
   </si>
 </sst>
 </file>
@@ -682,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,6 +880,21 @@
         <v>22</v>
       </c>
       <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1484,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/src/Data/Source/data.xlsx
+++ b/src/Data/Source/data.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
-    <sheet name="Department" sheetId="2" r:id="rId2"/>
-    <sheet name="Contacts" sheetId="3" r:id="rId3"/>
-    <sheet name="ISO Services" sheetId="5" r:id="rId4"/>
-    <sheet name="ISO Category" sheetId="4" r:id="rId5"/>
+    <sheet name="Orders" sheetId="6" r:id="rId2"/>
+    <sheet name="Department" sheetId="2" r:id="rId3"/>
+    <sheet name="Contacts" sheetId="3" r:id="rId4"/>
+    <sheet name="ISO Services" sheetId="5" r:id="rId5"/>
+    <sheet name="ISO Category" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="99">
   <si>
     <t>Text</t>
   </si>
@@ -289,7 +290,37 @@
     <t>ЗАПОВЕДИ</t>
   </si>
   <si>
-    <t>/order</t>
+    <t>/orders</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Нарежда в периода 3 – 4.01.2017 функциите директор на дирекция УТ да се изпълняват от Г. Димова – гл. арх.</t>
+  </si>
+  <si>
+    <t>РД-01</t>
+  </si>
+  <si>
+    <t>Премества Пламен Стоев на позиция в дейност 623</t>
+  </si>
+  <si>
+    <t>Заместване от 04.01.-06.01.2017 г. на Х.Атанасова от М.Добрева</t>
+  </si>
+  <si>
+    <t>Заместване от 04.01-06.01.2017 г. на М.Кукова от Л.Станчева</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
   </si>
 </sst>
 </file>
@@ -390,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,6 +438,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -690,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,10 +945,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="12"/>
+    <col min="3" max="3" width="11.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="153" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="8">
+        <v>42738</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="8">
+        <v>42738</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="8">
+        <v>42739</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="8">
+        <v>42739</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:C5"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +1101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -1257,7 +1389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -1501,7 +1633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>

--- a/src/Data/Source/data.xlsx
+++ b/src/Data/Source/data.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
-    <sheet name="Orders" sheetId="6" r:id="rId2"/>
-    <sheet name="Department" sheetId="2" r:id="rId3"/>
-    <sheet name="Contacts" sheetId="3" r:id="rId4"/>
-    <sheet name="ISO Services" sheetId="5" r:id="rId5"/>
-    <sheet name="ISO Category" sheetId="4" r:id="rId6"/>
+    <sheet name="Department" sheetId="2" r:id="rId2"/>
+    <sheet name="Contacts" sheetId="3" r:id="rId3"/>
+    <sheet name="ISO Services" sheetId="5" r:id="rId4"/>
+    <sheet name="ISO Category" sheetId="4" r:id="rId5"/>
+    <sheet name="OrdersCategory" sheetId="7" r:id="rId6"/>
+    <sheet name="Orders" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
   <si>
     <t>Text</t>
   </si>
@@ -299,21 +300,9 @@
     <t>About</t>
   </si>
   <si>
-    <t>Нарежда в периода 3 – 4.01.2017 функциите директор на дирекция УТ да се изпълняват от Г. Димова – гл. арх.</t>
-  </si>
-  <si>
     <t>РД-01</t>
   </si>
   <si>
-    <t>Премества Пламен Стоев на позиция в дейност 623</t>
-  </si>
-  <si>
-    <t>Заместване от 04.01.-06.01.2017 г. на Х.Атанасова от М.Добрева</t>
-  </si>
-  <si>
-    <t>Заместване от 04.01-06.01.2017 г. на М.Кукова от Л.Станчева</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -321,6 +310,66 @@
   </si>
   <si>
     <t>003</t>
+  </si>
+  <si>
+    <t>Жилищно Настаняване</t>
+  </si>
+  <si>
+    <t>Зап. Км АС</t>
+  </si>
+  <si>
+    <t>Зап. Км ОВ</t>
+  </si>
+  <si>
+    <t>ОС</t>
+  </si>
+  <si>
+    <t>ОСИСД</t>
+  </si>
+  <si>
+    <t>Гл. Арх ОВ</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нарежда в периода 3 – 4.01.2017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Премества на позиция в дейност </t>
+  </si>
+  <si>
+    <t>Заместване от 04.01.-06.01.201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заместване от 04.01-06.01.2017 </t>
+  </si>
+  <si>
+    <t>2022-05-02 14:05:10.5920262</t>
+  </si>
+  <si>
+    <t>2021-05-02 14:05:10.5920262</t>
+  </si>
+  <si>
+    <t>2020-05-02 14:05:10.5920262</t>
+  </si>
+  <si>
+    <t>2019-05-02 14:05:10.5920262</t>
+  </si>
+  <si>
+    <t>2018-06-02 14:05:10.5920262</t>
+  </si>
+  <si>
+    <t>2018-01-02 14:05:10.5920262</t>
+  </si>
+  <si>
+    <t>File Path</t>
+  </si>
+  <si>
+    <t>testPath1</t>
+  </si>
+  <si>
+    <t>OrderCategoryId</t>
   </si>
 </sst>
 </file>
@@ -421,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -438,9 +487,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -945,101 +991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.140625" style="12"/>
-    <col min="3" max="3" width="11.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="153" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="8">
-        <v>42738</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="8">
-        <v>42738</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="8">
-        <v>42739</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="8">
-        <v>42739</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -1389,7 +1344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -1633,7 +1588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1717,4 +1672,241 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="11"/>
+    <col min="3" max="3" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/Data/Source/data.xlsx
+++ b/src/Data/Source/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
   <si>
     <t>Text</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>OrderCategoryId</t>
+  </si>
+  <si>
+    <t>Всички</t>
   </si>
 </sst>
 </file>
@@ -1676,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,7 +1719,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1732,7 +1735,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1740,6 +1743,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1753,7 +1764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>

--- a/src/Data/Source/data.xlsx
+++ b/src/Data/Source/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
   <si>
     <t>Text</t>
   </si>
@@ -336,9 +336,6 @@
     <t xml:space="preserve">Нарежда в периода 3 – 4.01.2017 </t>
   </si>
   <si>
-    <t xml:space="preserve">Премества на позиция в дейност </t>
-  </si>
-  <si>
     <t>Заместване от 04.01.-06.01.201</t>
   </si>
   <si>
@@ -372,7 +369,7 @@
     <t>OrderCategoryId</t>
   </si>
   <si>
-    <t>Всички</t>
+    <t>Премества на позиция в дейност</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1593,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1711,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1719,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1727,7 +1724,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1735,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,14 +1740,6 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1764,14 +1753,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="11"/>
-    <col min="3" max="3" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="8" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1790,13 +1779,13 @@
         <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1804,19 +1793,19 @@
         <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1824,19 +1813,19 @@
         <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1844,19 +1833,19 @@
         <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1864,19 +1853,19 @@
         <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1884,19 +1873,19 @@
         <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1904,13 +1893,13 @@
         <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" s="2">
         <v>6</v>

--- a/src/Data/Source/data.xlsx
+++ b/src/Data/Source/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="117">
   <si>
     <t>Text</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <t>Премества на позиция в дейност</t>
+  </si>
+  <si>
+    <t>/email</t>
+  </si>
+  <si>
+    <t>СЪОБЩЕНИЕ</t>
   </si>
 </sst>
 </file>
@@ -775,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,6 +988,21 @@
         <v>88</v>
       </c>
       <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1753,7 +1774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/src/Data/Source/data.xlsx
+++ b/src/Data/Source/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="131">
   <si>
     <t>Text</t>
   </si>
@@ -376,6 +376,48 @@
   </si>
   <si>
     <t>СЪОБЩЕНИЕ</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>WorkPhone</t>
+  </si>
+  <si>
+    <t>PrivatePhone</t>
+  </si>
+  <si>
+    <t>Позиция 1</t>
+  </si>
+  <si>
+    <t>Позиция 2</t>
+  </si>
+  <si>
+    <t>Позиция 3</t>
+  </si>
+  <si>
+    <t>Позиция 4</t>
+  </si>
+  <si>
+    <t>Позиция 5</t>
+  </si>
+  <si>
+    <t>Позиция 6</t>
+  </si>
+  <si>
+    <t>Позиция 7</t>
+  </si>
+  <si>
+    <t>Позиция 8</t>
+  </si>
+  <si>
+    <t>Позиция 9</t>
+  </si>
+  <si>
+    <t>Позиция 10</t>
   </si>
 </sst>
 </file>
@@ -476,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,6 +542,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -783,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1079,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,11 +1135,11 @@
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="4" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1108,16 +1153,28 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1131,16 +1188,28 @@
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="2">
+        <v>101</v>
+      </c>
+      <c r="G2" s="13">
+        <v>370123</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="4">
+      <c r="K2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1154,16 +1223,28 @@
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="2">
+        <v>102</v>
+      </c>
+      <c r="G3" s="13">
+        <v>370123</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1177,16 +1258,28 @@
         <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="2">
+        <v>103</v>
+      </c>
+      <c r="G4" s="13">
+        <v>370123</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="I4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="4">
+      <c r="K4" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1200,16 +1293,28 @@
         <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="2">
+        <v>104</v>
+      </c>
+      <c r="G5" s="13">
+        <v>370123</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1223,16 +1328,28 @@
         <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="2">
+        <v>105</v>
+      </c>
+      <c r="G6" s="13">
+        <v>370123</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="I6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="4">
+      <c r="K6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1246,16 +1363,28 @@
         <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="2">
+        <v>106</v>
+      </c>
+      <c r="G7" s="13">
+        <v>370123</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="I7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="4">
+      <c r="K7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1269,16 +1398,28 @@
         <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="2">
+        <v>107</v>
+      </c>
+      <c r="G8" s="13">
+        <v>370123</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="I8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1292,16 +1433,28 @@
         <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="2">
+        <v>108</v>
+      </c>
+      <c r="G9" s="13">
+        <v>370123</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="I9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1315,16 +1468,28 @@
         <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="2">
+        <v>109</v>
+      </c>
+      <c r="G10" s="13">
+        <v>370123</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="I10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="5">
+      <c r="K10" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1338,27 +1503,39 @@
         <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="2">
+        <v>110</v>
+      </c>
+      <c r="G11" s="13">
+        <v>370123</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="5">
+      <c r="K11" s="5">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J5" r:id="rId4"/>
+    <hyperlink ref="J6" r:id="rId5"/>
+    <hyperlink ref="J7" r:id="rId6"/>
+    <hyperlink ref="J8" r:id="rId7"/>
+    <hyperlink ref="J9" r:id="rId8"/>
+    <hyperlink ref="J10" r:id="rId9"/>
+    <hyperlink ref="J11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>

--- a/src/Data/Source/data.xlsx
+++ b/src/Data/Source/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="133">
   <si>
     <t>Text</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>Позиция 10</t>
+  </si>
+  <si>
+    <t>/logs</t>
+  </si>
+  <si>
+    <t>Логове</t>
   </si>
 </sst>
 </file>
@@ -826,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,6 +1054,21 @@
         <v>115</v>
       </c>
       <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1126,7 +1147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>

--- a/src/Data/Source/data.xlsx
+++ b/src/Data/Source/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="135">
   <si>
     <t>Text</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>Логове</t>
+  </si>
+  <si>
+    <t>/state-newspaper</t>
+  </si>
+  <si>
+    <t>ДЪРЖАВЕН ВЕСТНИК</t>
   </si>
 </sst>
 </file>
@@ -832,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,6 +1075,21 @@
         <v>131</v>
       </c>
       <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Data/Source/data.xlsx
+++ b/src/Data/Source/data.xlsx
@@ -841,7 +841,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/Data/Source/data.xlsx
+++ b/src/Data/Source/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="137">
   <si>
     <t>Text</t>
   </si>
@@ -420,16 +420,22 @@
     <t>Позиция 10</t>
   </si>
   <si>
-    <t>/logs</t>
-  </si>
-  <si>
-    <t>Логове</t>
-  </si>
-  <si>
     <t>/state-newspaper</t>
   </si>
   <si>
     <t>ДЪРЖАВЕН ВЕСТНИК</t>
+  </si>
+  <si>
+    <t>ЛОГОВЕ</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>/admin</t>
+  </si>
+  <si>
+    <t>/admin/logs</t>
   </si>
 </sst>
 </file>
@@ -838,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,13 +1012,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -1021,13 +1027,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -1036,13 +1042,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -1066,30 +1072,49 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="5">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
